--- a/IlfaSriDesy/evidence project test telkom/evidence project test telkom.xlsx
+++ b/IlfaSriDesy/evidence project test telkom/evidence project test telkom.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NITIP ILFA\evidence project test telkom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ILFA\Clone\ProjectSpringHibernateRestApi\IlfaSriDesy\evidence project test telkom\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,9 +34,6 @@
     <t>API</t>
   </si>
   <si>
-    <t>http://localhost:1212//books?page[number]=1&amp;page[size]=10&amp;sort=id&amp;query=&amp;filter[status]=</t>
-  </si>
-  <si>
     <t>Parameter</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
     <t>sehingga semua data akan ditampilkan pada page pertama</t>
   </si>
   <si>
-    <t>http://localhost:1212//books?page[number]=1&amp;page[size]=5&amp;sort=id&amp;query=&amp;filter[status]=</t>
-  </si>
-  <si>
     <t>total datanya = 7</t>
   </si>
   <si>
@@ -88,9 +82,6 @@
     <t>pada sheet API 3 akan di perlihatkan ketika page = 2</t>
   </si>
   <si>
-    <t>http://localhost:1212//books?page[number]=2&amp;page[size]=5&amp;sort=id&amp;query=&amp;filter[status]=</t>
-  </si>
-  <si>
     <t>ketika di page 2, data yang muncul hanya 2</t>
   </si>
   <si>
@@ -106,9 +97,6 @@
     <t>CEK PAGINATON Part3</t>
   </si>
   <si>
-    <t>http://localhost:1212//books?page[number]=1&amp;page[size]=5&amp;sort=title&amp;query=&amp;filter[status]=</t>
-  </si>
-  <si>
     <t>CEK SORT</t>
   </si>
   <si>
@@ -121,9 +109,6 @@
     <t>data berurutan berdasarkan title asc</t>
   </si>
   <si>
-    <t>http://localhost:1212//books?page[number]=1&amp;page[size]=5&amp;sort=id&amp;query=1&amp;filter[status]=</t>
-  </si>
-  <si>
     <t>CEK QUERY</t>
   </si>
   <si>
@@ -140,6 +125,21 @@
   </si>
   <si>
     <t>data tidak muncul, karena di database, status nya "active" semua</t>
+  </si>
+  <si>
+    <t>http://localhost:1212//books?page[number]=1&amp;page[size]=10&amp;sort=id&amp;query=&amp;filter[status]=active</t>
+  </si>
+  <si>
+    <t>http://localhost:1212//books?page[number]=1&amp;page[size]=5&amp;sort=id&amp;query=&amp;filter[status]=active</t>
+  </si>
+  <si>
+    <t>http://localhost:1212//books?page[number]=2&amp;page[size]=5&amp;sort=id&amp;query=&amp;filter[status]=active</t>
+  </si>
+  <si>
+    <t>http://localhost:1212//books?page[number]=1&amp;page[size]=5&amp;sort=title&amp;query=&amp;filter[status]=active</t>
+  </si>
+  <si>
+    <t>http://localhost:1212//books?page[number]=1&amp;page[size]=5&amp;sort=id&amp;query=1&amp;filter[status]=active</t>
   </si>
 </sst>
 </file>
@@ -357,8 +357,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="0" y="964142"/>
-          <a:ext cx="6940027" cy="3932539"/>
+          <a:off x="0" y="968151"/>
+          <a:ext cx="6948847" cy="3949376"/>
           <a:chOff x="0" y="964142"/>
           <a:chExt cx="6940027" cy="3932539"/>
         </a:xfrm>
@@ -513,8 +513,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7760" y="1057223"/>
-          <a:ext cx="7012533" cy="3962155"/>
+          <a:off x="7760" y="1044693"/>
+          <a:ext cx="7040099" cy="3907021"/>
           <a:chOff x="7760" y="1057223"/>
           <a:chExt cx="7012533" cy="3962155"/>
         </a:xfrm>
@@ -631,8 +631,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="0" y="984817"/>
-          <a:ext cx="7684086" cy="4325672"/>
+          <a:off x="0" y="993551"/>
+          <a:ext cx="7682368" cy="4365846"/>
           <a:chOff x="0" y="984817"/>
           <a:chExt cx="7684086" cy="4325672"/>
         </a:xfrm>
@@ -787,8 +787,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="28222" y="1027029"/>
-          <a:ext cx="7441102" cy="4175677"/>
+          <a:off x="28222" y="1019293"/>
+          <a:ext cx="7459669" cy="4140090"/>
           <a:chOff x="28222" y="1027029"/>
           <a:chExt cx="7441102" cy="4175677"/>
         </a:xfrm>
@@ -905,8 +905,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="0" y="995892"/>
-          <a:ext cx="7154516" cy="4054247"/>
+          <a:off x="0" y="999901"/>
+          <a:ext cx="7163336" cy="4071886"/>
           <a:chOff x="0" y="995892"/>
           <a:chExt cx="7154516" cy="4054247"/>
         </a:xfrm>
@@ -1309,8 +1309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R92"/>
   <sheetViews>
-    <sheetView topLeftCell="E12" zoomScale="216" zoomScaleNormal="216" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView topLeftCell="A7" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1320,28 +1320,28 @@
         <v>0</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N1" s="3"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M83" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="84" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M84" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -1357,7 +1357,7 @@
     </row>
     <row r="85" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M85" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="86" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M86" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="87" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M87" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -1381,7 +1381,7 @@
     </row>
     <row r="89" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M89" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="90" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M90" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="91" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M91" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -1411,7 +1411,7 @@
     </row>
     <row r="92" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M92" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -1432,8 +1432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView topLeftCell="F12" zoomScale="244" zoomScaleNormal="244" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1443,29 +1443,29 @@
         <v>0</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="14:18" x14ac:dyDescent="0.35">
       <c r="N60" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
@@ -1474,7 +1474,7 @@
     </row>
     <row r="61" spans="14:18" x14ac:dyDescent="0.35">
       <c r="N61" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
@@ -1483,7 +1483,7 @@
     </row>
     <row r="62" spans="14:18" x14ac:dyDescent="0.35">
       <c r="N62" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="63" spans="14:18" x14ac:dyDescent="0.35">
       <c r="N63" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
@@ -1501,7 +1501,7 @@
     </row>
     <row r="64" spans="14:18" x14ac:dyDescent="0.35">
       <c r="N64" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
@@ -1522,8 +1522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView topLeftCell="C14" zoomScale="224" zoomScaleNormal="224" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1533,29 +1533,29 @@
         <v>0</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="14:18" x14ac:dyDescent="0.35">
       <c r="N42" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
@@ -1564,7 +1564,7 @@
     </row>
     <row r="43" spans="14:18" x14ac:dyDescent="0.35">
       <c r="N43" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
@@ -1584,8 +1584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView topLeftCell="F16" zoomScale="228" zoomScaleNormal="228" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1595,39 +1595,39 @@
         <v>0</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="N7" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O7" s="2"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="N8" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O8" s="2"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="14:17" x14ac:dyDescent="0.35">
       <c r="N33" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
@@ -1646,8 +1646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView topLeftCell="D17" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1657,28 +1657,28 @@
         <v>0</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N1" s="3"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M33" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -1699,8 +1699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="P55" sqref="P55"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1710,28 +1710,28 @@
         <v>0</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P1" s="3"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.35">
       <c r="O42" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
